--- a/courses/ml1/excel/naivebayes.xlsx
+++ b/courses/ml1/excel/naivebayes.xlsx
@@ -514,7 +514,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -860,27 +860,27 @@
       </c>
       <c r="E12" s="4">
         <f ca="1">RAND()</f>
-        <v>0.67184744173053468</v>
+        <v>0.32592487075068255</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:J12" ca="1" si="4">RAND()</f>
-        <v>0.78710568363271283</v>
+        <v>0.81787063279131211</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65270251458006256</v>
+        <v>0.6961617038720912</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59867845337255854</v>
+        <v>0.49619798188036179</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85350758769183088</v>
+        <v>0.43311219060101069</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89594140757162866</v>
+        <v>1.0621910250792954E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
